--- a/results/12-2023/comparison-deflators-12-2023.xlsx
+++ b/results/12-2023/comparison-deflators-12-2023.xlsx
@@ -599,7 +599,7 @@
         <v>0.0062</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
       <c r="M2" t="n">
         <v>0.0076</v>
@@ -741,13 +741,13 @@
         <v>-0.0177</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0669</v>
+        <v>-0.067</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.029</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.028</v>
+        <v>-0.0281</v>
       </c>
       <c r="S4" t="n">
         <v>-0.0264</v>
@@ -756,7 +756,7 @@
         <v>-0.0257</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.0038</v>
+        <v>-0.0039</v>
       </c>
     </row>
     <row r="5">
@@ -794,34 +794,34 @@
         <v>-0.1753</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0152</v>
+        <v>-0.0063</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1414</v>
+        <v>-0.1416</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3749</v>
+        <v>-0.3754</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3887</v>
+        <v>-0.3892</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1022</v>
+        <v>-0.1023</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0917</v>
+        <v>-0.0918</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4188</v>
+        <v>-0.4193</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2829</v>
+        <v>-0.2832</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1223</v>
+        <v>-0.1225</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1558</v>
+        <v>-0.156</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +859,34 @@
         <v>0.257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3143</v>
+        <v>0.3088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2876</v>
+        <v>0.2822</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1746</v>
+        <v>0.1691</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1013</v>
+        <v>-0.107</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2167</v>
+        <v>-0.2225</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1998</v>
+        <v>-0.2054</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.257</v>
+        <v>-0.2626</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1899</v>
+        <v>-0.1953</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1383</v>
+        <v>-0.1435</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0002</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="7">
@@ -924,34 +924,34 @@
         <v>-0.0822</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2574</v>
+        <v>-0.2545</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2443</v>
+        <v>-0.2459</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.333</v>
+        <v>-0.3343</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.3843</v>
+        <v>-0.3854</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2506</v>
+        <v>-0.2539</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1619</v>
+        <v>-0.161</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0447</v>
+        <v>-0.0441</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0668</v>
+        <v>0.0672</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1778</v>
+        <v>0.1781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2038</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="8">
@@ -989,34 +989,34 @@
         <v>0.5795</v>
       </c>
       <c r="L8" t="n">
-        <v>0.365</v>
+        <v>0.3631</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4665</v>
+        <v>0.4443</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5952</v>
+        <v>0.5743</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4884</v>
+        <v>0.4778</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4917</v>
+        <v>0.4814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4159</v>
+        <v>0.4056</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1032</v>
+        <v>0.0926</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0856</v>
+        <v>0.0752</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0943</v>
+        <v>0.0849</v>
       </c>
       <c r="U8" t="n">
-        <v>0.054</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="9">
@@ -1063,7 +1063,7 @@
         <v>-0.026</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0202</v>
+        <v>-0.0203</v>
       </c>
       <c r="P9" t="n">
         <v>-0.0213</v>
@@ -1119,16 +1119,16 @@
         <v>-0.0964</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0954</v>
+        <v>-0.0953</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0964</v>
+        <v>-0.0965</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0619</v>
+        <v>-0.062</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0488</v>
+        <v>-0.0489</v>
       </c>
       <c r="P10" t="n">
         <v>-0.0433</v>
@@ -1184,7 +1184,7 @@
         <v>0.0051</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
       <c r="M11" t="n">
         <v>0.0072</v>
@@ -1249,34 +1249,34 @@
         <v>-0.0338</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0319</v>
+        <v>0.0368</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1628</v>
+        <v>-0.1582</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.2005</v>
+        <v>-0.1872</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1093</v>
+        <v>-0.0962</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.068</v>
+        <v>-0.0597</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0356</v>
+        <v>-0.0275</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0716</v>
+        <v>-0.0579</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0706</v>
+        <v>-0.0573</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0677</v>
+        <v>-0.0546</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1185</v>
+        <v>-0.1058</v>
       </c>
     </row>
     <row r="13">
@@ -1314,16 +1314,16 @@
         <v>-0.0096</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1357</v>
+        <v>-0.1356</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1121</v>
+        <v>-0.1122</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1017</v>
+        <v>-0.1018</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0931</v>
+        <v>-0.0932</v>
       </c>
       <c r="P13" t="n">
         <v>-0.0549</v>
@@ -1335,7 +1335,7 @@
         <v>-0.0295</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0232</v>
+        <v>-0.0233</v>
       </c>
       <c r="T13" t="n">
         <v>0.0002</v>
@@ -1379,25 +1379,25 @@
         <v>-0.505</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.5521</v>
+        <v>-0.5524</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2243</v>
+        <v>-0.2245</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1757</v>
+        <v>-0.1759</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3159</v>
+        <v>-0.3163</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2368</v>
+        <v>-0.237</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1046</v>
+        <v>-0.1047</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0355</v>
+        <v>-0.0356</v>
       </c>
       <c r="S14" t="n">
         <v>-0.0289</v>
@@ -1509,34 +1509,34 @@
         <v>-0.3414</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3433</v>
+        <v>0.4203</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.2864</v>
+        <v>-0.2794</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.6884</v>
+        <v>-0.6913</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.5552</v>
+        <v>-0.5446</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.6208</v>
+        <v>-0.6118</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.364</v>
+        <v>-0.3555</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.5678</v>
+        <v>-0.5547</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.4433</v>
+        <v>-0.4308</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1666</v>
+        <v>-0.1717</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.0095</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="17">
@@ -1574,34 +1574,34 @@
         <v>27063</v>
       </c>
       <c r="L17" t="n">
-        <v>27644.5</v>
+        <v>27610.1</v>
       </c>
       <c r="M17" t="n">
-        <v>27922.3488</v>
+        <v>27887.6031</v>
       </c>
       <c r="N17" t="n">
-        <v>28241.677</v>
+        <v>28206.5339</v>
       </c>
       <c r="O17" t="n">
-        <v>28579.1393</v>
+        <v>28543.5763</v>
       </c>
       <c r="P17" t="n">
-        <v>28923.4801</v>
+        <v>28887.4886</v>
       </c>
       <c r="Q17" t="n">
-        <v>29280.0145</v>
+        <v>29243.5794</v>
       </c>
       <c r="R17" t="n">
-        <v>29643.3233</v>
+        <v>29606.436</v>
       </c>
       <c r="S17" t="n">
-        <v>29997.9818</v>
+        <v>29960.6532</v>
       </c>
       <c r="T17" t="n">
-        <v>30347.6377</v>
+        <v>30309.874</v>
       </c>
       <c r="U17" t="n">
-        <v>30684.7874</v>
+        <v>30646.6042</v>
       </c>
     </row>
     <row r="18">
@@ -1639,34 +1639,34 @@
         <v>-0.1321</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3431</v>
+        <v>-0.3421</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0478</v>
+        <v>-0.0479</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2551</v>
+        <v>-0.2555</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3658</v>
+        <v>-0.3663</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0161</v>
+        <v>-0.0162</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.3091</v>
+        <v>-0.3094</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.193</v>
+        <v>-0.1932</v>
       </c>
       <c r="T18" t="n">
         <v>-0.0373</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0879</v>
+        <v>-0.088</v>
       </c>
     </row>
     <row r="19">
@@ -1775,7 +1775,7 @@
         <v>-0.012</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.5953</v>
+        <v>-0.5961</v>
       </c>
       <c r="O20" t="n">
         <v>-0.0001</v>
@@ -1899,31 +1899,31 @@
         <v>0.4364</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6505</v>
+        <v>0.685</v>
       </c>
       <c r="M22" t="n">
         <v>0.0319</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2159</v>
+        <v>0.2162</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3059</v>
+        <v>0.3062</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0627</v>
+        <v>-0.0628</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1086</v>
+        <v>-0.1088</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2082</v>
+        <v>0.2084</v>
       </c>
       <c r="S22" t="n">
         <v>0.0886</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0688</v>
+        <v>-0.0689</v>
       </c>
       <c r="U22" t="n">
         <v>-0.0116</v>
@@ -1964,34 +1964,34 @@
         <v>-0.0308</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0202</v>
+        <v>-0.0213</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0087</v>
+        <v>-0.0095</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0068</v>
+        <v>-0.0076</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0033</v>
+        <v>-0.0041</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.019</v>
+        <v>0.0182</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0309</v>
+        <v>0.0302</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0091</v>
+        <v>0.0083</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0083</v>
+        <v>0.0075</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0129</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="24">
@@ -2029,28 +2029,28 @@
         <v>0.1214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2283</v>
+        <v>0.2222</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1029</v>
+        <v>0.1017</v>
       </c>
       <c r="N24" t="n">
-        <v>0.025</v>
+        <v>0.0239</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0902</v>
+        <v>-0.0913</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.1654</v>
+        <v>-0.1606</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.0745</v>
+        <v>-0.0741</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.0534</v>
+        <v>-0.0532</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0339</v>
+        <v>-0.0338</v>
       </c>
       <c r="T24" t="n">
         <v>-0.0151</v>
@@ -2094,34 +2094,34 @@
         <v>0.3117</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1418</v>
+        <v>0.1822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0823</v>
+        <v>0.1165</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1737</v>
+        <v>0.188</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1725</v>
+        <v>0.1893</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1074</v>
+        <v>0.1239</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0726</v>
+        <v>0.0888</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0346</v>
+        <v>0.0505</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0357</v>
+        <v>-0.02</v>
       </c>
       <c r="T25" t="n">
-        <v>0.011</v>
+        <v>0.0083</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0212</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="26">
@@ -2159,7 +2159,7 @@
         <v>-0.0072</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0142</v>
+        <v>0.0141</v>
       </c>
       <c r="M26" t="n">
         <v>0.0076</v>
@@ -2360,7 +2360,7 @@
         <v>-0.0007</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="O29" t="n">
         <v>0.0077</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2614,34 +2614,34 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="34">
@@ -2679,34 +2679,34 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-0.0053</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="35">
@@ -2744,34 +2744,34 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="36">
@@ -2809,34 +2809,34 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.0222</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0209</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>-0.0105</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-0.0103</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-0.0102</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-0.0106</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-0.0105</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-0.0094</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="37">
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3069,34 +3069,34 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0081</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="41">
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3199,22 +3199,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3329,34 +3329,34 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-0.0029</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.0085</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.0126</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-0.0051</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="45">
@@ -3394,34 +3394,34 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>-34.4</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>-34.7457</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>-35.1431</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>-35.563</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-35.9915</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>-36.4352</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-36.8873</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>-37.3286</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>-37.7637</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>-38.1832</v>
       </c>
     </row>
     <row r="46">
@@ -3459,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="47">
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3719,34 +3719,34 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.0344</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="51">
@@ -3784,34 +3784,34 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="52">
@@ -3849,28 +3849,28 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-0.0062</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -3914,34 +3914,34 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.0404</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.0342</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="54">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
